--- a/data/daCosta_Rios_Tbl3.xlsx
+++ b/data/daCosta_Rios_Tbl3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelance\Brazil-Li\brazil-da\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73626CF-4F91-4BCF-A1A9-798FCAF6CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AFDEC-451E-4224-B53A-9282B7BFFA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="825" windowWidth="14640" windowHeight="13020" xr2:uid="{7E344F84-1A5D-4186-8F1D-85532F941EDE}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="22680" windowHeight="15495" xr2:uid="{7E344F84-1A5D-4186-8F1D-85532F941EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="daCosta_Rios_Tbl3" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Minas Gerais (outside QF)</t>
-  </si>
-  <si>
     <t>Minas Gerais (Iron Quadrangle/QF)</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>117.86</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>94.87</v>
